--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -25,7 +25,28 @@
     <t>Wer</t>
   </si>
   <si>
-    <t>Zeit</t>
+    <t>Initiales Play Projekt erstellt</t>
+  </si>
+  <si>
+    <t>Sandro Dallo</t>
+  </si>
+  <si>
+    <t>(In Stunden)Zeit</t>
+  </si>
+  <si>
+    <t>UML Diagramm ins Fachkonzept überführt</t>
+  </si>
+  <si>
+    <t>Activity Diagramme erstellt</t>
+  </si>
+  <si>
+    <t>ER Diagramm angepasst</t>
+  </si>
+  <si>
+    <t>Initiales Testkonzept erstellt</t>
+  </si>
+  <si>
+    <t>Statusbericht und Zeiterfassung</t>
   </si>
 </sst>
 </file>
@@ -76,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -89,6 +110,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,35 +427,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E3"/>
+  <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="17.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>41589</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41592</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>41593</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41594</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41595</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>Statusbericht und Zeiterfassung</t>
+  </si>
+  <si>
+    <t>GUI Sketch</t>
+  </si>
+  <si>
+    <t>Jonas Alder</t>
+  </si>
+  <si>
+    <t>Review Technologieentscheid</t>
+  </si>
+  <si>
+    <t>GUI Sketch, Fachkonzept, Testkonzept</t>
+  </si>
+  <si>
+    <t>Fachkonzept, Testkonzept</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -122,6 +137,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E9"/>
+  <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -455,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -469,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -483,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -497,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -525,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -537,6 +555,76 @@
       </c>
       <c r="E9" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9">
+        <v>41582</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>41588</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41594</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41595</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Fachkonzept, Testkonzept</t>
+  </si>
+  <si>
+    <t>ERM erstellt</t>
+  </si>
+  <si>
+    <t>Patrick Bösch</t>
+  </si>
+  <si>
+    <t>Fachkonzept Initialer Entwurf</t>
+  </si>
+  <si>
+    <t>Use Cases Initaler Entwurf</t>
+  </si>
+  <si>
+    <t>Use Cases Import / Export ergänzt</t>
+  </si>
+  <si>
+    <t>State Diagram Warenkorb</t>
   </si>
 </sst>
 </file>
@@ -445,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E14"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +645,76 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41560</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>41584</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>41591</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>41592</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41593</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24360" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -80,16 +85,74 @@
   </si>
   <si>
     <t>State Diagram Warenkorb</t>
+  </si>
+  <si>
+    <t>Technologieentschied ausgearbeitet</t>
+  </si>
+  <si>
+    <t>Andy Villiger</t>
+  </si>
+  <si>
+    <t>Projektstruktur umorganisiert</t>
+  </si>
+  <si>
+    <t>ORM implementiert / Research</t>
+  </si>
+  <si>
+    <t>Research zu Play! &amp; ORM</t>
+  </si>
+  <si>
+    <t>ORM / Model implementiert / Research</t>
+  </si>
+  <si>
+    <t>Model implementiert / Research / ERM angepasst</t>
+  </si>
+  <si>
+    <t>Model implementiert / ERM angepasst</t>
+  </si>
+  <si>
+    <t>Dokumente angepasst / Klassenbschreibung geschrieben</t>
+  </si>
+  <si>
+    <t>Zeiterfassung / PL</t>
+  </si>
+  <si>
+    <t>Activity Diagramme / Pflichtenheft /Use Case Dokumente angepasst</t>
+  </si>
+  <si>
+    <t>Statusbericht Präsentation erstellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,8 +190,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -160,8 +229,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -219,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
@@ -493,230 +568,421 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>41589</v>
+        <v>41560</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>41592</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41582</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>41593</v>
+        <v>41584</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>41594</v>
+        <v>41584</v>
       </c>
       <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41588</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>41595</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>41596</v>
+        <v>41589</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9">
-        <v>41582</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>41589</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>41588</v>
+        <v>41591</v>
       </c>
       <c r="E11" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>41594</v>
+        <v>41592</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>41595</v>
+        <v>41592</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>41596</v>
+        <v>41592</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>41560</v>
+        <v>41592</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>41584</v>
+        <v>41593</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>41591</v>
+        <v>41593</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>41592</v>
+        <v>41593</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>41593</v>
+        <v>41594</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>41594</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>41594</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7">
+        <v>41594</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>41595</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>41595</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>41595</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>41596</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>41598</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>41599</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B4:E19">
+    <sortCondition ref="D4:D19"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="24360" windowHeight="14535"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>Statusbericht Präsentation erstellt</t>
+  </si>
+  <si>
+    <t>Testserver aufgesetzt und eingerichtet</t>
+  </si>
+  <si>
+    <t>User Registration implementiert</t>
+  </si>
+  <si>
+    <t>Login implementiert</t>
+  </si>
+  <si>
+    <t>Profilansicht implementiert</t>
+  </si>
+  <si>
+    <t>Profildaten bearbeiten implementiert</t>
+  </si>
+  <si>
+    <t>Transaktionsverlauf implementiert</t>
+  </si>
+  <si>
+    <t>Unittests für alle Account Arbeitspakete</t>
   </si>
 </sst>
 </file>
@@ -230,13 +251,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -294,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,13 +559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E32"/>
+  <dimension ref="B3:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A33" sqref="A33:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
@@ -970,6 +991,118 @@
       </c>
       <c r="E32" s="2">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7">
+        <v>41600</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7">
+        <v>41601</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7">
+        <v>41602</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>41603</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7">
+        <v>41604</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7">
+        <v>41605</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7">
+        <v>41609</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7">
+        <v>41610</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24360" windowHeight="14535"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="24360" windowHeight="14532"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Unittests für alle Account Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Api Schnittstelle</t>
+  </si>
+  <si>
+    <t>Testdaten erfasst</t>
   </si>
 </sst>
 </file>
@@ -559,21 +565,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E40"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -587,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -601,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -615,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -629,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -643,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -657,7 +663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -671,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -685,7 +691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -699,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -713,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -727,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -741,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -755,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -769,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -783,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
@@ -797,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -811,7 +817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
@@ -825,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -839,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -853,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
@@ -867,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -881,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
@@ -895,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
@@ -909,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
@@ -923,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
@@ -951,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -965,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
@@ -979,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -993,7 +999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1103,6 +1109,48 @@
       </c>
       <c r="E40" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>41609</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>41609</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>41610</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="24360" windowHeight="14532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Testdaten erfasst</t>
+  </si>
+  <si>
+    <t>Produktansichten implementiert</t>
   </si>
 </sst>
 </file>
@@ -565,21 +568,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E43"/>
+  <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -593,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -607,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -621,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -635,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -649,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -663,7 +666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -677,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -691,7 +694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -705,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -719,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -733,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -761,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -775,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -789,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
@@ -803,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -817,7 +820,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
@@ -831,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -845,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -859,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
@@ -901,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
@@ -915,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
@@ -929,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -943,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -971,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
@@ -985,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>42</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1151,6 +1154,34 @@
       </c>
       <c r="E43" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="7">
+        <v>41609</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="7">
+        <v>41610</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Produktansichten implementiert</t>
+  </si>
+  <si>
+    <t>Testfälle erstellt, Fehlerbehebung</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E45"/>
+  <dimension ref="B3:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1184,62 @@
         <v>41610</v>
       </c>
       <c r="E45" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>41616</v>
+      </c>
+      <c r="E46" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="7">
+        <v>41617</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="7">
+        <v>41618</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>41619</v>
+      </c>
+      <c r="E49" s="2">
         <v>1.5</v>
       </c>
     </row>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Testfälle erstellt, Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Api Schnittstelle Test</t>
   </si>
 </sst>
 </file>
@@ -266,9 +269,9 @@
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,9 +328,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E49"/>
+  <dimension ref="B3:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,6 +1244,62 @@
       </c>
       <c r="E49" s="2">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>41617</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>41618</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>41619</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>41620</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>Api Schnittstelle Test</t>
+  </si>
+  <si>
+    <t>Basislayout aufgesetzt/initialisiert</t>
+  </si>
+  <si>
+    <t>Layout-Anpassungen</t>
+  </si>
+  <si>
+    <t>Datenbank-Änderungen, Initialisierung Datenbank angepasst</t>
+  </si>
+  <si>
+    <t>Produkte in den Warenkorb legen</t>
+  </si>
+  <si>
+    <t>Warenkorb Management</t>
+  </si>
+  <si>
+    <t>Bestellprozess implementieren</t>
+  </si>
+  <si>
+    <t>Bestellprozess und Emailversand implementieren</t>
+  </si>
+  <si>
+    <t>Refactoring, Bestellprozess</t>
+  </si>
+  <si>
+    <t>Last Steps Programmierung geplant</t>
   </si>
 </sst>
 </file>
@@ -226,8 +253,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -265,13 +294,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+  <cellStyles count="9">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,21 +605,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E53"/>
+  <dimension ref="B3:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -602,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -616,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -630,12 +661,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
         <v>41584</v>
@@ -644,12 +675,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
         <v>41584</v>
@@ -658,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -672,35 +703,35 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <v>41589</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
         <v>41589</v>
       </c>
       <c r="E10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -714,12 +745,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <v>41592</v>
@@ -728,26 +759,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
         <v>41592</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
         <v>41592</v>
@@ -756,26 +787,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
         <v>41592</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
         <v>41593</v>
@@ -784,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -798,12 +829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
         <v>41593</v>
@@ -812,23 +843,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
         <v>41594</v>
       </c>
       <c r="E19" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -837,10 +868,10 @@
         <v>41594</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -854,35 +885,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>27</v>
+    <row r="22" spans="2:5">
+      <c r="B22" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
         <v>41594</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>9</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
         <v>41595</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -896,37 +927,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>28</v>
+    <row r="25" spans="2:5">
+      <c r="B25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
         <v>41595</v>
       </c>
       <c r="E25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
         <v>41596</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>23</v>
@@ -935,12 +966,12 @@
         <v>41596</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
@@ -952,35 +983,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
         <v>41596</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
         <v>41596</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28">
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
@@ -994,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1050,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1078,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1092,51 +1123,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" s="7">
         <v>41609</v>
       </c>
       <c r="E39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7">
+        <v>41609</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D40" s="7">
-        <v>41610</v>
-      </c>
-      <c r="E40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D41" s="7">
         <v>41609</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -1145,10 +1176,10 @@
         <v>41609</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1156,13 +1187,13 @@
         <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>41610</v>
+        <v>41609</v>
       </c>
       <c r="E43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
@@ -1170,125 +1201,125 @@
         <v>12</v>
       </c>
       <c r="D44" s="7">
-        <v>41609</v>
+        <v>41610</v>
       </c>
       <c r="E44" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D45" s="7">
         <v>41610</v>
       </c>
       <c r="E45" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7">
+        <v>41610</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7">
+        <v>41611</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="7">
+        <v>41611</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="7">
+        <v>41611</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D50" s="7">
         <v>41616</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E50" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+    <row r="51" spans="2:5">
+      <c r="B51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="7">
+        <v>41616</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D52" s="7">
         <v>41617</v>
       </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="7">
-        <v>41618</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="7">
-        <v>41619</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7">
-        <v>41617</v>
-      </c>
-      <c r="E50" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>41618</v>
-      </c>
-      <c r="E51" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7">
-        <v>41619</v>
-      </c>
       <c r="E52" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
@@ -1296,15 +1327,156 @@
         <v>4</v>
       </c>
       <c r="D53" s="7">
+        <v>41617</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="7">
+        <v>41618</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7">
+        <v>41618</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="7">
+        <v>41619</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="7">
+        <v>41619</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>41619</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
         <v>41620</v>
       </c>
-      <c r="E53" s="2">
-        <v>3</v>
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="7">
+        <v>41621</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:E19">
-    <sortCondition ref="D4:D19"/>
+  <sortState ref="B5:E54">
+    <sortCondition ref="D5:D54"/>
+    <sortCondition ref="C5:C54"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Last Steps Programmierung geplant</t>
+  </si>
+  <si>
+    <t>Log Controller + View + CSS</t>
   </si>
 </sst>
 </file>
@@ -295,14 +298,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,21 +608,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E63"/>
+  <dimension ref="B3:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" thickBot="1">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -633,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -647,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
@@ -675,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -689,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -703,7 +706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -717,7 +720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -731,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -745,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -759,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
@@ -773,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -787,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -801,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
@@ -815,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -829,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -843,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -857,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -871,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -885,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -899,7 +902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -913,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -927,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
@@ -941,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
@@ -955,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
@@ -969,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -983,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="28">
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>46</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>43</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>45</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>50</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>45</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>51</v>
       </c>
@@ -1431,52 +1434,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7">
+        <v>41621</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="7">
+      <c r="C62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="7">
         <v>41622</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="7">
         <v>41623</v>
       </c>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="6" t="s">
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="7">
+      <c r="C65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="7">
         <v>41623</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E65" s="2">
         <v>0.5</v>
       </c>
     </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B5:E54">
-    <sortCondition ref="D5:D54"/>
-    <sortCondition ref="C5:C54"/>
+  <sortState ref="B4:E66">
+    <sortCondition ref="D3"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -187,6 +187,39 @@
   </si>
   <si>
     <t>Log Controller + View + CSS</t>
+  </si>
+  <si>
+    <t>User/Account Test erweitert und Korrekturen</t>
+  </si>
+  <si>
+    <t>Testframework erstellt</t>
+  </si>
+  <si>
+    <t>Problem mit Ebean und Updatetime behoben</t>
+  </si>
+  <si>
+    <t>Länderverwaltung implementiert</t>
+  </si>
+  <si>
+    <t>Global Exception Handler</t>
+  </si>
+  <si>
+    <t>Code aufgeräumt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation zusammenstellen </t>
+  </si>
+  <si>
+    <t>Lasten und Pflichtenheft zur Dokumentation hinzugefügt</t>
+  </si>
+  <si>
+    <t>Fehler beim Löschen eines Users korrigiert</t>
+  </si>
+  <si>
+    <t>Fehler im Login korrigiert</t>
+  </si>
+  <si>
+    <t>Demo Umgebung eingerichtet</t>
   </si>
 </sst>
 </file>
@@ -302,10 +335,10 @@
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,9 +395,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E66"/>
+  <dimension ref="B3:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,83 +1315,83 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D50" s="7">
-        <v>41616</v>
+        <v>41611</v>
       </c>
       <c r="E50" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D51" s="7">
-        <v>41616</v>
+        <v>41612</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D52" s="7">
-        <v>41617</v>
+        <v>41613</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D53" s="7">
-        <v>41617</v>
+        <v>41613</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D54" s="7">
-        <v>41618</v>
+        <v>41614</v>
       </c>
       <c r="E54" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>41618</v>
+        <v>41615</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -1366,41 +1399,41 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7">
-        <v>41619</v>
+        <v>41616</v>
       </c>
       <c r="E56" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D57" s="7">
-        <v>41619</v>
+        <v>41616</v>
       </c>
       <c r="E57" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -1414,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="7">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -1422,16 +1455,16 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D60" s="7">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="E60" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -1442,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="7">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -1450,13 +1483,13 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="7">
-        <v>41622</v>
+        <v>41619</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
@@ -1464,63 +1497,245 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D63" s="7">
-        <v>41622</v>
+        <v>41619</v>
       </c>
       <c r="E63" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D64" s="7">
-        <v>41623</v>
+        <v>41619</v>
       </c>
       <c r="E64" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D65" s="7">
-        <v>41623</v>
+        <v>41619</v>
       </c>
       <c r="E65" s="2">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7">
+        <v>41620</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="7">
+        <v>41620</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="7">
+        <v>41621</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7">
+        <v>41621</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="7">
+        <v>41621</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E72" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="7">
         <v>41623</v>
       </c>
-      <c r="E66" s="2">
-        <v>4</v>
+      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:E66">
-    <sortCondition ref="D3"/>
+  <sortState ref="B4:E79">
+    <sortCondition ref="D4:D79"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/02 Organisation/Zeiterfassung.xlsx
+++ b/doc/02 Organisation/Zeiterfassung.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$3:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +223,18 @@
   </si>
   <si>
     <t>Demo Umgebung eingerichtet</t>
+  </si>
+  <si>
+    <t>Tags für Produkte</t>
+  </si>
+  <si>
+    <t>Produkte, Testing, Dokumentation, Bewertungen erweitert</t>
+  </si>
+  <si>
+    <t>Team synchronisation</t>
+  </si>
+  <si>
+    <t>Alle</t>
   </si>
 </sst>
 </file>
@@ -641,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E79"/>
+  <dimension ref="B3:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,80 +1526,80 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D64" s="7">
         <v>41619</v>
       </c>
       <c r="E64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D65" s="7">
         <v>41619</v>
       </c>
       <c r="E65" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D66" s="7">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="E66" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D67" s="7">
         <v>41620</v>
       </c>
       <c r="E67" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D68" s="7">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="E68" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D69" s="7">
         <v>41621</v>
@@ -1595,94 +1610,94 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D70" s="7">
         <v>41621</v>
       </c>
       <c r="E70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D71" s="7">
-        <v>41622</v>
+        <v>41621</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D72" s="7">
         <v>41622</v>
       </c>
       <c r="E72" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D73" s="7">
         <v>41622</v>
       </c>
       <c r="E73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="7">
+        <v>41622</v>
+      </c>
+      <c r="E74" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="7">
-        <v>41623</v>
-      </c>
-      <c r="E74" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D75" s="7">
-        <v>41623</v>
+        <v>41622</v>
       </c>
       <c r="E75" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D76" s="7">
         <v>41623</v>
@@ -1693,35 +1708,35 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D77" s="7">
         <v>41623</v>
       </c>
       <c r="E77" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D78" s="7">
         <v>41623</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>17</v>
@@ -1730,10 +1745,57 @@
         <v>41623</v>
       </c>
       <c r="E79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E81" s="2">
         <v>2</v>
       </c>
     </row>
+    <row r="82" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="7">
+        <v>41623</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B3:E3">
+    <sortState ref="B4:E81">
+      <sortCondition ref="D3"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="B4:E79">
     <sortCondition ref="D4:D79"/>
   </sortState>
